--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15500</v>
+        <v>12400</v>
       </c>
       <c r="E8" s="3">
         <v>15500</v>
       </c>
       <c r="F8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="G8" s="3">
         <v>13600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E9" s="3">
         <v>11400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-6700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-5300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,37 +894,38 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>300</v>
       </c>
       <c r="H12" s="3">
+        <v>300</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
@@ -925,8 +939,11 @@
       <c r="P12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,22 +986,25 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -998,11 +1018,11 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1010,11 +1030,14 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E17" s="3">
         <v>14500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>7600</v>
       </c>
       <c r="N17" s="3">
         <v>7600</v>
       </c>
       <c r="O17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P17" s="3">
         <v>7000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1300</v>
       </c>
       <c r="F18" s="3">
         <v>1300</v>
       </c>
       <c r="G18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="3">
         <v>700</v>
       </c>
       <c r="I18" s="3">
+        <v>700</v>
+      </c>
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,28 +1211,29 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1222,52 +1256,58 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1500</v>
       </c>
       <c r="F21" s="3">
         <v>1500</v>
       </c>
       <c r="G21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="H21" s="3">
         <v>900</v>
       </c>
       <c r="I21" s="3">
+        <v>900</v>
+      </c>
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,57 +1350,63 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>800</v>
       </c>
       <c r="H23" s="3">
         <v>800</v>
       </c>
       <c r="I23" s="3">
+        <v>800</v>
+      </c>
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1369,37 +1415,40 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
       </c>
       <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>200</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>600</v>
       </c>
       <c r="H27" s="3">
         <v>600</v>
       </c>
       <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>200</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1632,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,23 +1653,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>41200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,28 +1773,31 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1750,52 +1820,58 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
         <v>12500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,96 +2145,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E43" s="3">
         <v>12200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>11800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E44" s="3">
         <v>8200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,87 +2251,93 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>800</v>
       </c>
       <c r="I45" s="3">
+        <v>800</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E46" s="3">
         <v>33700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>32100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>28600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>25200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,19 +2380,22 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -2308,63 +2416,69 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3200</v>
       </c>
       <c r="F49" s="3">
         <v>3200</v>
       </c>
       <c r="G49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H49" s="3">
         <v>3300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2586,7 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2481,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>4100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E54" s="3">
         <v>37700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>34400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>32500</v>
       </c>
       <c r="H54" s="3">
         <v>32500</v>
       </c>
       <c r="I54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="J54" s="3">
         <v>32900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2749,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>2400</v>
       </c>
       <c r="F57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2841,105 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,13 +2982,16 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2400</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -2854,16 +3000,16 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -2872,10 +3018,10 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>500</v>
       </c>
       <c r="O62" s="3">
         <v>500</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E72" s="3">
         <v>9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1600</v>
-      </c>
-      <c r="M72" s="3">
-        <v>1500</v>
       </c>
       <c r="N72" s="3">
         <v>1500</v>
       </c>
       <c r="O72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E76" s="3">
         <v>31500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>27800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>25200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +3826,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -3646,10 +3845,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>-100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -3670,10 +3869,13 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,10 +4184,10 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -3981,14 +4202,14 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,41 +4313,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>3800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4360,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4567,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-200</v>
       </c>
       <c r="N100" s="3">
         <v>-200</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E8" s="3">
         <v>12400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>15500</v>
       </c>
       <c r="F8" s="3">
         <v>15500</v>
       </c>
       <c r="G8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H8" s="3">
         <v>13600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>9200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-6700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-5300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,40 +907,41 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>300</v>
       </c>
       <c r="I12" s="3">
+        <v>300</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,25 +1005,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1021,11 +1040,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1033,11 +1052,14 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
         <v>12400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7600</v>
       </c>
       <c r="O17" s="3">
         <v>7600</v>
       </c>
       <c r="P17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>7000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>1000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1300</v>
       </c>
       <c r="G18" s="3">
         <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="I18" s="3">
         <v>700</v>
       </c>
       <c r="J18" s="3">
+        <v>700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1259,55 +1292,61 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1200</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1500</v>
       </c>
       <c r="G21" s="3">
         <v>1500</v>
       </c>
       <c r="H21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="I21" s="3">
         <v>900</v>
       </c>
       <c r="J21" s="3">
+        <v>900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>800</v>
       </c>
       <c r="I23" s="3">
         <v>800</v>
       </c>
       <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1409,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1418,37 +1463,40 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>600</v>
       </c>
       <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="M26" s="3">
-        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
       </c>
       <c r="I27" s="3">
         <v>600</v>
       </c>
       <c r="J27" s="3">
+        <v>600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,16 +1692,19 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1656,23 +1716,23 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>41200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1823,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,149 +2237,161 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>11800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E44" s="3">
         <v>8400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>7900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>800</v>
       </c>
       <c r="J45" s="3">
+        <v>800</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2298,46 +2399,49 @@
         <v>29200</v>
       </c>
       <c r="E46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F46" s="3">
         <v>33700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>32100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>28600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>25200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,22 +2487,25 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>800</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
@@ -2419,66 +2526,72 @@
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E49" s="3">
         <v>7600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3200</v>
       </c>
       <c r="G49" s="3">
         <v>3200</v>
       </c>
       <c r="H49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I49" s="3">
         <v>3300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2589,7 +2708,7 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2604,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>4100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E54" s="3">
         <v>39800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>34400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>32500</v>
       </c>
       <c r="I54" s="3">
         <v>32500</v>
       </c>
       <c r="J54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K54" s="3">
         <v>32900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2400</v>
       </c>
       <c r="F57" s="3">
         <v>2400</v>
       </c>
       <c r="G57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +2977,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>5500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,16 +3127,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3003,16 +3148,16 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3021,10 +3166,10 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E72" s="3">
         <v>9300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>1500</v>
       </c>
       <c r="O72" s="3">
         <v>1500</v>
       </c>
       <c r="P72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E76" s="3">
         <v>31900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>25200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,7 +4034,7 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -3848,10 +4046,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>-100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -3872,10 +4070,13 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,22 +4394,23 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -4205,14 +4425,14 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,44 +4542,47 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>3800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,43 +4812,46 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-200</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
@@ -4617,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
         <v>10400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>12400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>15500</v>
       </c>
       <c r="G8" s="3">
         <v>15500</v>
       </c>
       <c r="H8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="I8" s="3">
         <v>13600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>9200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-6700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-4800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-5300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,43 +921,44 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>300</v>
       </c>
       <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,28 +1025,31 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1043,11 +1063,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1055,11 +1075,14 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>16600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>7600</v>
       </c>
       <c r="P17" s="3">
         <v>7600</v>
       </c>
       <c r="Q17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="R17" s="3">
         <v>7000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1300</v>
       </c>
       <c r="H18" s="3">
         <v>1300</v>
       </c>
       <c r="I18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="J18" s="3">
         <v>700</v>
       </c>
       <c r="K18" s="3">
+        <v>700</v>
+      </c>
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1257,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1500</v>
       </c>
       <c r="H21" s="3">
         <v>1500</v>
       </c>
       <c r="I21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="J21" s="3">
         <v>900</v>
       </c>
       <c r="K21" s="3">
+        <v>900</v>
+      </c>
+      <c r="L21" s="3">
         <v>2200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,60 +1447,63 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>800</v>
       </c>
       <c r="J23" s="3">
         <v>800</v>
       </c>
       <c r="K23" s="3">
+        <v>800</v>
+      </c>
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1466,37 +1512,40 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>600</v>
       </c>
       <c r="J26" s="3">
         <v>600</v>
       </c>
       <c r="K26" s="3">
+        <v>600</v>
+      </c>
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="N26" s="3">
-        <v>200</v>
       </c>
       <c r="O26" s="3">
         <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>600</v>
       </c>
       <c r="J27" s="3">
         <v>600</v>
       </c>
       <c r="K27" s="3">
+        <v>600</v>
+      </c>
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>200</v>
       </c>
       <c r="O27" s="3">
         <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1767,8 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1719,23 +1780,23 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>41200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1857,22 +1927,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,199 +2342,211 @@
         <v>5000</v>
       </c>
       <c r="E43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F43" s="3">
         <v>5700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>11800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E44" s="3">
         <v>9100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>800</v>
       </c>
       <c r="J45" s="3">
         <v>800</v>
       </c>
       <c r="K45" s="3">
+        <v>800</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>29200</v>
+        <v>31200</v>
       </c>
       <c r="E46" s="3">
         <v>29200</v>
       </c>
       <c r="F46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="G46" s="3">
         <v>33700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>32100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>28600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>28500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,25 +2595,28 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>800</v>
       </c>
       <c r="G48" s="3">
         <v>800</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
@@ -2529,69 +2637,75 @@
         <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E49" s="3">
         <v>7400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3200</v>
       </c>
       <c r="H49" s="3">
         <v>3200</v>
       </c>
       <c r="I49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J49" s="3">
         <v>3300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,7 +2831,7 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2726,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>4100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E54" s="3">
         <v>39400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>32500</v>
       </c>
       <c r="J54" s="3">
         <v>32500</v>
       </c>
       <c r="K54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="L54" s="3">
         <v>32900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,81 +3010,85 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2400</v>
       </c>
       <c r="G57" s="3">
         <v>2400</v>
       </c>
       <c r="H57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,113 +3114,122 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,19 +3273,22 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3151,16 +3297,16 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -3169,10 +3315,10 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3783,52 @@
         <v>8900</v>
       </c>
       <c r="E72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F72" s="3">
         <v>9300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1500</v>
       </c>
       <c r="P72" s="3">
         <v>1500</v>
       </c>
       <c r="Q72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R72" s="3">
         <v>1600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E76" s="3">
         <v>31700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>28700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>27400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>25200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,7 +4236,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4049,10 +4248,10 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4073,10 +4272,13 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,25 +4615,26 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -4428,14 +4649,14 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,47 +4772,50 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>3800</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
         <v>-200</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,46 +5058,49 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-200</v>
       </c>
       <c r="P100" s="3">
         <v>-200</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>15500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>13600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>11800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>11400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>11200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>9500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>27200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>12800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>5700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>4300</v>
       </c>
       <c r="I10" s="3">
         <v>4100</v>
       </c>
       <c r="J10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-6700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-4800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-5300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -931,40 +959,40 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>200</v>
+      </c>
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,34 +1062,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1066,23 +1106,29 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F17" s="3">
         <v>9800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>14200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>16600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>7600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>7600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T17" s="3">
         <v>7000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,32 +1356,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1518,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>41100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-40700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-40700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1783,34 +1905,40 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>41200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,32 +2064,32 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2399,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F41" s="3">
         <v>15600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>12500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>14000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>16300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>11600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,131 +2513,149 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>5700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>9900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>11800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F44" s="3">
         <v>9200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>9100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>8400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>8200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
-      </c>
-      <c r="K44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6900</v>
       </c>
       <c r="M44" s="3">
         <v>7100</v>
       </c>
       <c r="N44" s="3">
+        <v>6900</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P44" s="3">
         <v>6800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>6500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>6700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>6600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>800</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -2466,87 +2664,99 @@
         <v>800</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
+        <v>800</v>
+      </c>
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1500</v>
       </c>
       <c r="S45" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U45" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>30900</v>
+      </c>
+      <c r="F46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>29200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>29200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>33700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>32100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>30500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>28600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>28500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>25200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>27900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>18800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>16800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>16500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>16900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>16100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2808,37 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -2640,72 +2856,84 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F49" s="3">
         <v>7200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>7600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>7900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,7 +3059,7 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2834,10 +3074,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2849,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>4100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>40800</v>
+      </c>
+      <c r="F54" s="3">
         <v>40900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>39400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>37700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>36100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>34400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>32500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>32500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>32900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>35700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>25100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>24900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>25500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>25000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,13 +3271,15 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
@@ -3026,57 +3288,63 @@
         <v>1200</v>
       </c>
       <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1200</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -3090,11 +3358,11 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3117,126 +3385,144 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>6000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>6100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3800</v>
       </c>
       <c r="K60" s="3">
         <v>4700</v>
       </c>
       <c r="L60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>4100</v>
       </c>
       <c r="R60" s="3">
         <v>3400</v>
       </c>
       <c r="S60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3276,61 +3562,73 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>200</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>500</v>
-      </c>
-      <c r="R62" s="3">
-        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>500</v>
+      </c>
+      <c r="U62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3800</v>
       </c>
       <c r="K66" s="3">
         <v>4700</v>
       </c>
       <c r="L66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F72" s="3">
         <v>8900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>8900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>9500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>8900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>6400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F76" s="3">
         <v>31800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>31700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>31500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>30600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>29700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>27800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>25200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>21300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>21100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>21000</v>
       </c>
       <c r="R76" s="3">
         <v>21100</v>
       </c>
       <c r="S76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="T76" s="3">
+        <v>21100</v>
+      </c>
+      <c r="U76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4620,15 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4239,10 +4637,10 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4251,13 +4649,13 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>-100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4275,10 +4673,16 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5056,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,22 +5067,22 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -4652,7 +5094,7 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -4661,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5229,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,34 +5244,34 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>3800</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -4820,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4858,10 +5326,10 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>-200</v>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,52 +5547,58 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-200</v>
       </c>
       <c r="R100" s="3">
         <v>-200</v>
@@ -5114,8 +5606,14 @@
       <c r="S100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>12400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>15500</v>
       </c>
       <c r="J8" s="3">
         <v>15500</v>
       </c>
       <c r="K8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>11400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>27200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-6700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-5300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,13 +962,14 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
@@ -965,37 +978,37 @@
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>300</v>
       </c>
       <c r="M12" s="3">
+        <v>300</v>
+      </c>
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,17 +1084,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
@@ -1086,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1112,11 +1131,11 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1124,11 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>7600</v>
       </c>
       <c r="S17" s="3">
         <v>7600</v>
       </c>
       <c r="T17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U17" s="3">
         <v>7000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1300</v>
       </c>
       <c r="K18" s="3">
         <v>1300</v>
       </c>
       <c r="L18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="M18" s="3">
         <v>700</v>
       </c>
       <c r="N18" s="3">
+        <v>700</v>
+      </c>
+      <c r="O18" s="3">
         <v>2000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,11 +1389,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1368,22 +1401,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1406,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1500</v>
       </c>
       <c r="K21" s="3">
         <v>1500</v>
       </c>
       <c r="L21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="M21" s="3">
         <v>900</v>
       </c>
       <c r="N21" s="3">
+        <v>900</v>
+      </c>
+      <c r="O21" s="3">
         <v>2200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,87 +1563,93 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>800</v>
       </c>
       <c r="M23" s="3">
         <v>800</v>
       </c>
       <c r="N23" s="3">
+        <v>800</v>
+      </c>
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -1613,37 +1658,40 @@
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>600</v>
       </c>
       <c r="M26" s="3">
         <v>600</v>
       </c>
       <c r="N26" s="3">
+        <v>600</v>
+      </c>
+      <c r="O26" s="3">
         <v>1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>200</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>600</v>
       </c>
       <c r="M27" s="3">
         <v>600</v>
       </c>
       <c r="N27" s="3">
+        <v>600</v>
+      </c>
+      <c r="O27" s="3">
         <v>1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>200</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1898,8 +1958,8 @@
       <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1911,23 +1971,23 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>41200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,11 +2133,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2076,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>15500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>11600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,244 +2608,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5000</v>
       </c>
       <c r="G43" s="3">
         <v>5000</v>
       </c>
       <c r="H43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I43" s="3">
         <v>5700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>12200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E44" s="3">
         <v>9000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
       </c>
       <c r="J45" s="3">
+        <v>700</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>800</v>
       </c>
       <c r="M45" s="3">
         <v>800</v>
       </c>
       <c r="N45" s="3">
+        <v>800</v>
+      </c>
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E46" s="3">
         <v>31800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>29200</v>
       </c>
       <c r="H46" s="3">
         <v>29200</v>
       </c>
       <c r="I46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J46" s="3">
         <v>33700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>32100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>25200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>27900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,34 +2918,37 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
@@ -2862,78 +2969,84 @@
         <v>600</v>
       </c>
       <c r="R48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S48" s="3">
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>7200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3100</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3200</v>
       </c>
       <c r="K49" s="3">
         <v>3200</v>
       </c>
       <c r="L49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M49" s="3">
         <v>3300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3059,10 +3178,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
+        <v>100</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3080,7 +3199,7 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3095,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>4100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42800</v>
+      </c>
+      <c r="E54" s="3">
         <v>40600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>32500</v>
       </c>
       <c r="M54" s="3">
         <v>32500</v>
       </c>
       <c r="N54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="O54" s="3">
         <v>32900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,81 +3402,85 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="E57" s="3">
         <v>1500</v>
       </c>
       <c r="F57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2400</v>
       </c>
       <c r="J57" s="3">
         <v>2400</v>
       </c>
       <c r="K57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -3364,8 +3497,8 @@
       <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3391,141 +3524,150 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3568,28 +3710,31 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3598,16 +3743,16 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3616,10 +3761,10 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
       </c>
       <c r="T62" s="3">
         <v>500</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>8600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>8900</v>
       </c>
       <c r="G72" s="3">
         <v>8900</v>
       </c>
       <c r="H72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I72" s="3">
         <v>9300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>1500</v>
       </c>
       <c r="S72" s="3">
         <v>1500</v>
       </c>
       <c r="T72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U72" s="3">
         <v>1600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E76" s="3">
         <v>32200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>25200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +4829,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -4643,7 +4841,7 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4655,10 +4853,10 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -4679,10 +4877,13 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
+        <v>200</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5073,19 +5293,19 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -5100,14 +5320,14 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5250,41 +5479,41 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>3800</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5332,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-200</v>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,55 +5795,58 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-200</v>
       </c>
       <c r="S100" s="3">
         <v>-200</v>
@@ -5612,8 +5857,11 @@
       <c r="U100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>15500</v>
       </c>
       <c r="K8" s="3">
         <v>15500</v>
       </c>
       <c r="L8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="M8" s="3">
         <v>13600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E9" s="3">
         <v>6300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>11400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>27200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-4800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-5300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,16 +976,17 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
@@ -981,37 +995,37 @@
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>300</v>
       </c>
       <c r="N12" s="3">
+        <v>300</v>
+      </c>
+      <c r="O12" s="3">
         <v>200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>200</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1108,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1134,11 +1154,11 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1146,11 +1166,14 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>12400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
-      </c>
-      <c r="S17" s="3">
-        <v>7600</v>
       </c>
       <c r="T17" s="3">
         <v>7600</v>
       </c>
       <c r="U17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="V17" s="3">
         <v>7000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>5500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1300</v>
       </c>
       <c r="L18" s="3">
         <v>1300</v>
       </c>
       <c r="M18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="N18" s="3">
         <v>700</v>
       </c>
       <c r="O18" s="3">
+        <v>700</v>
+      </c>
+      <c r="P18" s="3">
         <v>2000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,11 +1426,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1404,22 +1438,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1500</v>
       </c>
       <c r="L21" s="3">
         <v>1500</v>
       </c>
       <c r="M21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="N21" s="3">
         <v>900</v>
       </c>
       <c r="O21" s="3">
+        <v>900</v>
+      </c>
+      <c r="P21" s="3">
         <v>2200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,93 +1606,99 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>800</v>
       </c>
       <c r="N23" s="3">
         <v>800</v>
       </c>
       <c r="O23" s="3">
+        <v>800</v>
+      </c>
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1661,37 +1707,40 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
+        <v>300</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>600</v>
       </c>
       <c r="N26" s="3">
         <v>600</v>
       </c>
       <c r="O26" s="3">
+        <v>600</v>
+      </c>
+      <c r="P26" s="3">
         <v>1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="R26" s="3">
-        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>4800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>600</v>
       </c>
       <c r="N27" s="3">
         <v>600</v>
       </c>
       <c r="O27" s="3">
+        <v>600</v>
+      </c>
+      <c r="P27" s="3">
         <v>1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="R27" s="3">
-        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +2022,8 @@
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1974,23 +2035,23 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>41200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,11 +2206,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2148,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>16300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,256 +2701,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
         <v>6400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5000</v>
       </c>
       <c r="H43" s="3">
         <v>5000</v>
       </c>
       <c r="I43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J43" s="3">
         <v>5700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>12200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E44" s="3">
         <v>9600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
       </c>
       <c r="K45" s="3">
+        <v>700</v>
+      </c>
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>800</v>
       </c>
       <c r="N45" s="3">
         <v>800</v>
       </c>
       <c r="O45" s="3">
+        <v>800</v>
+      </c>
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E46" s="3">
         <v>34300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>30900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>29200</v>
       </c>
       <c r="I46" s="3">
         <v>29200</v>
       </c>
       <c r="J46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="K46" s="3">
         <v>33700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>32100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>28600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>27900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,37 +3026,40 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>800</v>
       </c>
       <c r="K48" s="3">
         <v>800</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
@@ -2972,81 +3080,87 @@
         <v>600</v>
       </c>
       <c r="S48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>700</v>
       </c>
       <c r="U48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E49" s="3">
         <v>6600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3200</v>
       </c>
       <c r="L49" s="3">
         <v>3200</v>
       </c>
       <c r="M49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N49" s="3">
         <v>3300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,10 +3301,10 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3202,7 +3322,7 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3217,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>4100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E54" s="3">
         <v>42800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>32500</v>
       </c>
       <c r="N54" s="3">
         <v>32500</v>
       </c>
       <c r="O54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="P54" s="3">
         <v>32900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1500</v>
       </c>
       <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2400</v>
       </c>
       <c r="K57" s="3">
         <v>2400</v>
       </c>
       <c r="L57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>10</v>
@@ -3500,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,17 +3803,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3713,31 +3856,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3746,16 +3892,16 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3764,10 +3910,10 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
-      </c>
-      <c r="T62" s="3">
-        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>500</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>8900</v>
       </c>
       <c r="H72" s="3">
         <v>8900</v>
       </c>
       <c r="I72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J72" s="3">
         <v>9300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>1500</v>
       </c>
       <c r="T72" s="3">
         <v>1500</v>
       </c>
       <c r="U72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V72" s="3">
         <v>1600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E76" s="3">
         <v>37200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>32200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>25200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4844,7 +5043,7 @@
         <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4856,10 +5055,10 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4880,10 +5079,13 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>5600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,13 +5498,14 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5296,19 +5517,19 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -5323,14 +5544,14 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,13 +5691,16 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -5482,41 +5712,41 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>3800</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5568,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-200</v>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,49 +6053,49 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-200</v>
       </c>
       <c r="T100" s="3">
         <v>-200</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>9500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>15500</v>
       </c>
       <c r="L8" s="3">
         <v>15500</v>
       </c>
       <c r="M8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="N8" s="3">
         <v>13600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>20500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E9" s="3">
         <v>10200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>27200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E10" s="3">
         <v>5100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-6700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-4800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-5300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,10 +1000,10 @@
         <v>400</v>
       </c>
       <c r="E12" s="3">
+        <v>400</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
@@ -998,37 +1012,37 @@
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
       </c>
       <c r="M12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>300</v>
       </c>
       <c r="O12" s="3">
+        <v>300</v>
+      </c>
+      <c r="P12" s="3">
         <v>200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
       </c>
       <c r="T12" s="3">
         <v>200</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,22 +1124,25 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2800</v>
       </c>
-      <c r="F14" s="3">
-        <v>200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1131,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1157,11 +1177,11 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1169,11 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>12400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>7600</v>
       </c>
       <c r="U17" s="3">
         <v>7600</v>
       </c>
       <c r="V17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W17" s="3">
         <v>7000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>1000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1300</v>
       </c>
       <c r="M18" s="3">
         <v>1300</v>
       </c>
       <c r="N18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="O18" s="3">
         <v>700</v>
       </c>
       <c r="P18" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1441,22 +1475,22 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1500</v>
       </c>
       <c r="M21" s="3">
         <v>1500</v>
       </c>
       <c r="N21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="O21" s="3">
         <v>900</v>
       </c>
       <c r="P21" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>800</v>
       </c>
       <c r="O23" s="3">
         <v>800</v>
       </c>
       <c r="P23" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,25 +1729,25 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-200</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -1710,37 +1756,40 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
+        <v>300</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>600</v>
       </c>
       <c r="O26" s="3">
         <v>600</v>
       </c>
       <c r="P26" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
       </c>
       <c r="T26" s="3">
         <v>200</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>600</v>
       </c>
       <c r="O27" s="3">
         <v>600</v>
       </c>
       <c r="P27" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
       </c>
       <c r="T27" s="3">
         <v>200</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2025,8 +2086,8 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2038,23 +2099,23 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>41200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2209,11 +2279,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2221,22 +2291,22 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>-100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>12600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>16300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,268 +2794,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E43" s="3">
         <v>10500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5000</v>
       </c>
       <c r="I43" s="3">
         <v>5000</v>
       </c>
       <c r="J43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E44" s="3">
         <v>10400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
       </c>
       <c r="L45" s="3">
+        <v>700</v>
+      </c>
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>800</v>
       </c>
       <c r="O45" s="3">
         <v>800</v>
       </c>
       <c r="P45" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E46" s="3">
         <v>37600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>34300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>30900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31200</v>
-      </c>
-      <c r="I46" s="3">
-        <v>29200</v>
       </c>
       <c r="J46" s="3">
         <v>29200</v>
       </c>
       <c r="K46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="L46" s="3">
         <v>33700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>32100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>28600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>27900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,31 +3146,31 @@
         <v>2200</v>
       </c>
       <c r="E48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>800</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -3083,84 +3191,90 @@
         <v>600</v>
       </c>
       <c r="T48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U48" s="3">
         <v>700</v>
       </c>
       <c r="V48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="W48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3200</v>
       </c>
       <c r="M49" s="3">
         <v>3200</v>
       </c>
       <c r="N49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O49" s="3">
         <v>3300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,13 +3406,16 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -3304,10 +3424,10 @@
         <v>100</v>
       </c>
       <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3325,7 +3445,7 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3340,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>4100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E54" s="3">
         <v>46400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>39400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>32500</v>
       </c>
       <c r="O54" s="3">
         <v>32500</v>
       </c>
       <c r="P54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>32900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1500</v>
       </c>
       <c r="G57" s="3">
         <v>1500</v>
       </c>
       <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2400</v>
       </c>
       <c r="L57" s="3">
         <v>2400</v>
       </c>
       <c r="M57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>10</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,17 +3949,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3859,34 +4002,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -3895,16 +4041,16 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>200</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3913,10 +4059,10 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>500</v>
       </c>
       <c r="V62" s="3">
         <v>500</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="3">
         <v>7800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>14400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>8900</v>
       </c>
       <c r="I72" s="3">
         <v>8900</v>
       </c>
       <c r="J72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>1500</v>
       </c>
       <c r="U72" s="3">
         <v>1500</v>
       </c>
       <c r="V72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W72" s="3">
         <v>1600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E76" s="3">
         <v>38600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>37200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>32200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>25200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5233,7 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -5046,7 +5245,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5058,10 +5257,10 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>-100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5082,10 +5281,13 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>5600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5520,19 +5741,19 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -5547,14 +5768,14 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5703,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -5715,41 +5945,41 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>3800</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5805,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-200</v>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,61 +6287,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-200</v>
       </c>
       <c r="U100" s="3">
         <v>-200</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E8" s="3">
         <v>21100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>15500</v>
       </c>
       <c r="M8" s="3">
         <v>15500</v>
       </c>
       <c r="N8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="O8" s="3">
         <v>13600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>20500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E9" s="3">
         <v>15800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>12800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-6700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-4800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-5300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,22 +1004,23 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
         <v>400</v>
       </c>
       <c r="F12" s="3">
+        <v>400</v>
+      </c>
+      <c r="G12" s="3">
         <v>200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
@@ -1015,37 +1029,37 @@
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
       </c>
       <c r="N12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>300</v>
       </c>
       <c r="P12" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="3">
         <v>200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,26 +1144,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2800</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1154,19 +1174,19 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1180,11 +1200,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1192,11 +1212,14 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E17" s="3">
         <v>20000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>7600</v>
       </c>
       <c r="V17" s="3">
         <v>7600</v>
       </c>
       <c r="W17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X17" s="3">
         <v>7000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1300</v>
       </c>
       <c r="N18" s="3">
         <v>1300</v>
       </c>
       <c r="O18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="P18" s="3">
         <v>700</v>
       </c>
       <c r="Q18" s="3">
+        <v>700</v>
+      </c>
+      <c r="R18" s="3">
         <v>2000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,11 +1500,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1478,22 +1512,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1516,76 +1550,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1500</v>
       </c>
       <c r="N21" s="3">
         <v>1500</v>
       </c>
       <c r="O21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="P21" s="3">
         <v>900</v>
       </c>
       <c r="Q21" s="3">
+        <v>900</v>
+      </c>
+      <c r="R21" s="3">
         <v>2200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,105 +1692,111 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>800</v>
       </c>
       <c r="P23" s="3">
         <v>800</v>
       </c>
       <c r="Q23" s="3">
+        <v>800</v>
+      </c>
+      <c r="R23" s="3">
         <v>2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-200</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -1759,37 +1805,40 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>300</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>600</v>
       </c>
       <c r="P26" s="3">
         <v>600</v>
       </c>
       <c r="Q26" s="3">
+        <v>600</v>
+      </c>
+      <c r="R26" s="3">
         <v>1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>200</v>
       </c>
       <c r="U26" s="3">
         <v>200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>600</v>
       </c>
       <c r="P27" s="3">
         <v>600</v>
       </c>
       <c r="Q27" s="3">
+        <v>600</v>
+      </c>
+      <c r="R27" s="3">
         <v>1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>200</v>
       </c>
       <c r="U27" s="3">
         <v>200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,37 +2118,40 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2102,23 +2163,23 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>41200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2282,11 +2352,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2294,22 +2364,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2332,76 +2402,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>16300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,280 +2887,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
         <v>13500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>5000</v>
       </c>
       <c r="J43" s="3">
         <v>5000</v>
       </c>
       <c r="K43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L43" s="3">
         <v>5700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>11800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E44" s="3">
         <v>11200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>9600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>700</v>
       </c>
       <c r="M45" s="3">
+        <v>700</v>
+      </c>
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>800</v>
       </c>
       <c r="P45" s="3">
         <v>800</v>
       </c>
       <c r="Q45" s="3">
+        <v>800</v>
+      </c>
+      <c r="R45" s="3">
         <v>900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E46" s="3">
         <v>40600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>29200</v>
       </c>
       <c r="K46" s="3">
         <v>29200</v>
       </c>
       <c r="L46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="M46" s="3">
         <v>33700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>32100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>28600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>27900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,43 +3242,46 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>800</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
@@ -3194,87 +3302,93 @@
         <v>600</v>
       </c>
       <c r="U48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V48" s="3">
         <v>700</v>
       </c>
       <c r="W48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="X48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E49" s="3">
         <v>6400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3200</v>
       </c>
       <c r="N49" s="3">
         <v>3200</v>
       </c>
       <c r="O49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P49" s="3">
         <v>3300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,16 +3526,19 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -3427,10 +3547,10 @@
         <v>100</v>
       </c>
       <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3448,7 +3568,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3463,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>4100</v>
-      </c>
-      <c r="U52" s="3">
-        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E54" s="3">
         <v>49600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>42800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>39400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>32500</v>
       </c>
       <c r="P54" s="3">
         <v>32500</v>
       </c>
       <c r="Q54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="R54" s="3">
         <v>32900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,81 +3795,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1500</v>
       </c>
       <c r="H57" s="3">
         <v>1500</v>
       </c>
       <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2400</v>
       </c>
       <c r="M57" s="3">
         <v>2400</v>
       </c>
       <c r="N57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3748,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>10</v>
@@ -3774,8 +3908,8 @@
       <c r="O58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3952,17 +4095,17 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,37 +4148,40 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4044,16 +4190,16 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -4062,10 +4208,10 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
+        <v>100</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>500</v>
       </c>
       <c r="W62" s="3">
         <v>500</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>10000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E72" s="3">
         <v>15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>8900</v>
       </c>
       <c r="J72" s="3">
         <v>8900</v>
       </c>
       <c r="K72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L72" s="3">
         <v>9300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1600</v>
-      </c>
-      <c r="U72" s="3">
-        <v>1500</v>
       </c>
       <c r="V72" s="3">
         <v>1500</v>
       </c>
       <c r="W72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X72" s="3">
         <v>1600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39500</v>
+      </c>
+      <c r="E76" s="3">
         <v>39600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>37200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>32200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>31800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>25200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5236,7 +5435,7 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -5248,7 +5447,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5260,10 +5459,10 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5284,10 +5483,13 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,19 +5940,20 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5744,19 +5965,19 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -5771,14 +5992,14 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,19 +6151,22 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -5948,41 +6178,41 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6042,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-200</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,55 +6545,55 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>-200</v>
       </c>
       <c r="V100" s="3">
         <v>-200</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,63 +6687,66 @@
         <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E8" s="3">
         <v>16900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>15500</v>
       </c>
       <c r="N8" s="3">
         <v>15500</v>
       </c>
       <c r="O8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="P8" s="3">
         <v>13600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E9" s="3">
         <v>12800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>12800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-6700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-4800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-5300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,25 +1017,26 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>400</v>
       </c>
       <c r="G12" s="3">
+        <v>400</v>
+      </c>
+      <c r="H12" s="3">
         <v>200</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
@@ -1032,37 +1045,37 @@
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
       </c>
       <c r="O12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>300</v>
       </c>
       <c r="Q12" s="3">
+        <v>300</v>
+      </c>
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
-      </c>
-      <c r="U12" s="3">
-        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,29 +1163,32 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2800</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1177,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1203,11 +1222,11 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1215,11 +1234,14 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E17" s="3">
         <v>17300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>16600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
-      </c>
-      <c r="V17" s="3">
-        <v>7600</v>
       </c>
       <c r="W17" s="3">
         <v>7600</v>
       </c>
       <c r="X17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>7000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1300</v>
       </c>
       <c r="O18" s="3">
         <v>1300</v>
       </c>
       <c r="P18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="Q18" s="3">
         <v>700</v>
       </c>
       <c r="R18" s="3">
+        <v>700</v>
+      </c>
+      <c r="S18" s="3">
         <v>2000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,13 +1514,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1503,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1515,22 +1548,22 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1553,79 +1586,85 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1500</v>
       </c>
       <c r="O21" s="3">
         <v>1500</v>
       </c>
       <c r="P21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="Q21" s="3">
         <v>900</v>
       </c>
       <c r="R21" s="3">
+        <v>900</v>
+      </c>
+      <c r="S21" s="3">
         <v>2200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,111 +1734,117 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>800</v>
       </c>
       <c r="Q23" s="3">
         <v>800</v>
       </c>
       <c r="R23" s="3">
+        <v>800</v>
+      </c>
+      <c r="S23" s="3">
         <v>2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-200</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
       </c>
       <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
@@ -1808,37 +1853,40 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>600</v>
       </c>
       <c r="Q26" s="3">
         <v>600</v>
       </c>
       <c r="R26" s="3">
+        <v>600</v>
+      </c>
+      <c r="S26" s="3">
         <v>1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="U26" s="3">
-        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>600</v>
       </c>
       <c r="Q27" s="3">
         <v>600</v>
       </c>
       <c r="R27" s="3">
+        <v>600</v>
+      </c>
+      <c r="S27" s="3">
         <v>1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="U27" s="3">
-        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,14 +2207,14 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2166,23 +2226,23 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>41200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,13 +2400,16 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2355,11 +2424,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2367,22 +2436,22 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>13500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>12600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>16300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E43" s="3">
         <v>10500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5000</v>
       </c>
       <c r="K43" s="3">
         <v>5000</v>
       </c>
       <c r="L43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M43" s="3">
         <v>5700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>11800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E44" s="3">
         <v>13500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>9600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>8600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>700</v>
       </c>
       <c r="M45" s="3">
         <v>700</v>
       </c>
       <c r="N45" s="3">
+        <v>700</v>
+      </c>
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>800</v>
       </c>
       <c r="Q45" s="3">
         <v>800</v>
       </c>
       <c r="R45" s="3">
+        <v>800</v>
+      </c>
+      <c r="S45" s="3">
         <v>900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E46" s="3">
         <v>41100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>40600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>37600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>29200</v>
       </c>
       <c r="L46" s="3">
         <v>29200</v>
       </c>
       <c r="M46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="N46" s="3">
         <v>33700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>32100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>30500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>28600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>25200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>27900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,46 +3349,49 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2200</v>
       </c>
       <c r="F48" s="3">
         <v>2200</v>
       </c>
       <c r="G48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
@@ -3305,90 +3412,96 @@
         <v>600</v>
       </c>
       <c r="V48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W48" s="3">
         <v>700</v>
       </c>
       <c r="X48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3200</v>
       </c>
       <c r="O49" s="3">
         <v>3200</v>
       </c>
       <c r="P49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,19 +3645,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -3550,10 +3669,10 @@
         <v>100</v>
       </c>
       <c r="I52" s="3">
+        <v>100</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3571,7 +3690,7 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3586,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>4100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E54" s="3">
         <v>49700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>42800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34400</v>
-      </c>
-      <c r="P54" s="3">
-        <v>32500</v>
       </c>
       <c r="Q54" s="3">
         <v>32500</v>
       </c>
       <c r="R54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="S54" s="3">
         <v>32900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>26900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,88 +3925,92 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1500</v>
       </c>
       <c r="I57" s="3">
         <v>1500</v>
       </c>
       <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2400</v>
       </c>
       <c r="N57" s="3">
         <v>2400</v>
       </c>
       <c r="O57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -3885,16 +4018,16 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>10</v>
@@ -3911,8 +4044,8 @@
       <c r="P58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3938,155 +4071,164 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E60" s="3">
         <v>9700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>14300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4098,17 +4240,17 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,31 +4305,31 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4193,16 +4338,16 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
-      </c>
-      <c r="S62" s="3">
-        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -4211,10 +4356,10 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
-      </c>
-      <c r="W62" s="3">
-        <v>500</v>
       </c>
       <c r="X62" s="3">
         <v>500</v>
@@ -4222,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E72" s="3">
         <v>14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>8900</v>
       </c>
       <c r="K72" s="3">
         <v>8900</v>
       </c>
       <c r="L72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="M72" s="3">
         <v>9300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>1500</v>
       </c>
       <c r="W72" s="3">
         <v>1500</v>
       </c>
       <c r="X72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y72" s="3">
         <v>1600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E76" s="3">
         <v>39500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>37200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>32200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>31800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>25200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -5438,7 +5636,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -5450,7 +5648,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5462,10 +5660,10 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>-100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5486,10 +5684,13 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,22 +6160,23 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
@@ -5968,19 +6188,19 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -5995,14 +6215,14 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,22 +6380,25 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -6181,41 +6410,41 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3800</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6279,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-200</v>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,67 +6778,70 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>16800</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-200</v>
       </c>
       <c r="W100" s="3">
         <v>-200</v>
@@ -6607,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>-9800</v>
       </c>
       <c r="E102" s="3">
         <v>500</v>
       </c>
       <c r="F102" s="3">
+        <v>500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-2200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E8" s="3">
         <v>21500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>16900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>15500</v>
       </c>
       <c r="O8" s="3">
         <v>15500</v>
       </c>
       <c r="P8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>13600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E9" s="3">
         <v>15400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>12800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>7500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>12800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-6700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-4800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-5300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,28 +1031,29 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
-      </c>
-      <c r="F12" s="3">
-        <v>400</v>
       </c>
       <c r="G12" s="3">
         <v>400</v>
       </c>
       <c r="H12" s="3">
+        <v>400</v>
+      </c>
+      <c r="I12" s="3">
         <v>200</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
@@ -1048,37 +1062,37 @@
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>400</v>
       </c>
       <c r="O12" s="3">
         <v>400</v>
       </c>
       <c r="P12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>300</v>
       </c>
       <c r="R12" s="3">
+        <v>300</v>
+      </c>
+      <c r="S12" s="3">
         <v>200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,32 +1183,35 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2800</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1199,19 +1219,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1225,11 +1245,11 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1237,11 +1257,14 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E17" s="3">
         <v>20800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>16600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>7600</v>
       </c>
       <c r="X17" s="3">
         <v>7600</v>
       </c>
       <c r="Y17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>7000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1300</v>
       </c>
       <c r="P18" s="3">
         <v>1300</v>
       </c>
       <c r="Q18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="R18" s="3">
         <v>700</v>
       </c>
       <c r="S18" s="3">
+        <v>700</v>
+      </c>
+      <c r="T18" s="3">
         <v>2000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,7 +1558,7 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1539,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1551,22 +1585,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1589,82 +1623,88 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1500</v>
       </c>
       <c r="P21" s="3">
         <v>1500</v>
       </c>
       <c r="Q21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="R21" s="3">
         <v>900</v>
       </c>
       <c r="S21" s="3">
+        <v>900</v>
+      </c>
+      <c r="T21" s="3">
         <v>2200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>800</v>
       </c>
       <c r="R23" s="3">
         <v>800</v>
       </c>
       <c r="S23" s="3">
+        <v>800</v>
+      </c>
+      <c r="T23" s="3">
         <v>2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,34 +1866,34 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
       </c>
       <c r="H24" s="3">
+        <v>300</v>
+      </c>
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-200</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
       </c>
       <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>300</v>
@@ -1856,37 +1902,40 @@
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>600</v>
       </c>
       <c r="R26" s="3">
         <v>600</v>
       </c>
       <c r="S26" s="3">
+        <v>600</v>
+      </c>
+      <c r="T26" s="3">
         <v>1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="V26" s="3">
-        <v>200</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>600</v>
       </c>
       <c r="R27" s="3">
         <v>600</v>
       </c>
       <c r="S27" s="3">
+        <v>600</v>
+      </c>
+      <c r="T27" s="3">
         <v>1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="V27" s="3">
-        <v>200</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2210,14 +2271,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2229,23 +2290,23 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>41200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2427,11 +2497,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2439,22 +2509,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>11600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E43" s="3">
         <v>14700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>5000</v>
       </c>
       <c r="L43" s="3">
         <v>5000</v>
       </c>
       <c r="M43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N43" s="3">
         <v>5700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>12200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>11800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3065,221 +3161,230 @@
         <v>19200</v>
       </c>
       <c r="E44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F44" s="3">
         <v>13500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>10400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>700</v>
       </c>
       <c r="N45" s="3">
         <v>700</v>
       </c>
       <c r="O45" s="3">
+        <v>700</v>
+      </c>
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>800</v>
       </c>
       <c r="R45" s="3">
         <v>800</v>
       </c>
       <c r="S45" s="3">
+        <v>800</v>
+      </c>
+      <c r="T45" s="3">
         <v>900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E46" s="3">
         <v>41600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>40600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>37600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>34300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>31800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>29200</v>
       </c>
       <c r="M46" s="3">
         <v>29200</v>
       </c>
       <c r="N46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="O46" s="3">
         <v>33700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>32100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>30500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>28600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>25200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>27900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,49 +3457,52 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2200</v>
       </c>
       <c r="G48" s="3">
         <v>2200</v>
       </c>
       <c r="H48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>800</v>
       </c>
       <c r="P48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
@@ -3415,93 +3523,99 @@
         <v>600</v>
       </c>
       <c r="W48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X48" s="3">
         <v>700</v>
       </c>
       <c r="Y48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Z48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E49" s="3">
         <v>24800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3100</v>
-      </c>
-      <c r="O49" s="3">
-        <v>3200</v>
       </c>
       <c r="P49" s="3">
         <v>3200</v>
       </c>
       <c r="Q49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R49" s="3">
         <v>3300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,22 +3765,25 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -3672,10 +3792,10 @@
         <v>100</v>
       </c>
       <c r="J52" s="3">
+        <v>100</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3693,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3708,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>4100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>100</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>87200</v>
+      </c>
+      <c r="E54" s="3">
         <v>69600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>49700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>32500</v>
       </c>
       <c r="R54" s="3">
         <v>32500</v>
       </c>
       <c r="S54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="T54" s="3">
         <v>32900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>26900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,94 +4056,98 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
       </c>
       <c r="J57" s="3">
         <v>1500</v>
       </c>
       <c r="K57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2400</v>
       </c>
       <c r="O57" s="3">
         <v>2400</v>
       </c>
       <c r="P57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -4021,16 +4155,16 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>10</v>
@@ -4047,8 +4181,8 @@
       <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4074,165 +4208,174 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>9200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E60" s="3">
         <v>14600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E61" s="3">
         <v>14300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -4243,17 +4386,17 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4296,43 +4439,46 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>15300</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4341,16 +4487,16 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>200</v>
-      </c>
-      <c r="T62" s="3">
-        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
@@ -4359,10 +4505,10 @@
         <v>100</v>
       </c>
       <c r="W62" s="3">
+        <v>100</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
-      </c>
-      <c r="X62" s="3">
-        <v>500</v>
       </c>
       <c r="Y62" s="3">
         <v>500</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E66" s="3">
         <v>29500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E72" s="3">
         <v>15400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>8900</v>
       </c>
       <c r="L72" s="3">
         <v>8900</v>
       </c>
       <c r="M72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="N72" s="3">
         <v>9300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>1500</v>
       </c>
       <c r="X72" s="3">
         <v>1500</v>
       </c>
       <c r="Y72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>1600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E76" s="3">
         <v>40200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>39500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>37200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>32200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>25200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>21900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5639,7 +5838,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -5651,7 +5850,7 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -5663,10 +5862,10 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>-100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>200</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5687,10 +5886,13 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,16 +6391,16 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -6191,19 +6412,19 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -6218,14 +6439,14 @@
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,25 +6610,28 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -6413,41 +6643,41 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-4000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3800</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6515,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-200</v>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,70 +7024,73 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>16800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>-200</v>
       </c>
       <c r="X100" s="3">
         <v>-200</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
-      </c>
-      <c r="E102" s="3">
-        <v>500</v>
       </c>
       <c r="F102" s="3">
         <v>500</v>
       </c>
       <c r="G102" s="3">
+        <v>500</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E8" s="3">
         <v>23800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>15500</v>
       </c>
       <c r="P8" s="3">
         <v>15500</v>
       </c>
       <c r="Q8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="R8" s="3">
         <v>13600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>20500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E9" s="3">
         <v>16600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>10200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>11400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>7500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>12800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>6200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>7200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-6700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-4800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-5300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,22 +1055,22 @@
         <v>800</v>
       </c>
       <c r="E12" s="3">
+        <v>800</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>400</v>
       </c>
       <c r="H12" s="3">
         <v>400</v>
       </c>
       <c r="I12" s="3">
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
@@ -1065,37 +1079,37 @@
         <v>400</v>
       </c>
       <c r="M12" s="3">
+        <v>400</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>400</v>
       </c>
       <c r="P12" s="3">
         <v>400</v>
       </c>
       <c r="Q12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>300</v>
       </c>
       <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
-      </c>
-      <c r="W12" s="3">
-        <v>200</v>
       </c>
       <c r="X12" s="3">
         <v>200</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,35 +1203,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1222,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1248,11 +1268,11 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1260,11 +1280,14 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E17" s="3">
         <v>22800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>16600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>7600</v>
       </c>
       <c r="Y17" s="3">
         <v>7600</v>
       </c>
       <c r="Z17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>7000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>1000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1300</v>
       </c>
       <c r="Q18" s="3">
         <v>1300</v>
       </c>
       <c r="R18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="S18" s="3">
         <v>700</v>
       </c>
       <c r="T18" s="3">
+        <v>700</v>
+      </c>
+      <c r="U18" s="3">
         <v>2000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,19 +1582,20 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1576,11 +1610,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1588,22 +1622,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1500</v>
       </c>
       <c r="Q21" s="3">
         <v>1500</v>
       </c>
       <c r="R21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="S21" s="3">
         <v>900</v>
       </c>
       <c r="T21" s="3">
+        <v>900</v>
+      </c>
+      <c r="U21" s="3">
         <v>2200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,123 +1820,129 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>800</v>
       </c>
       <c r="S23" s="3">
         <v>800</v>
       </c>
       <c r="T23" s="3">
+        <v>800</v>
+      </c>
+      <c r="U23" s="3">
         <v>2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>300</v>
       </c>
       <c r="I24" s="3">
+        <v>300</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-200</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
       </c>
       <c r="L24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
@@ -1905,37 +1951,40 @@
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>600</v>
       </c>
       <c r="S26" s="3">
         <v>600</v>
       </c>
       <c r="T26" s="3">
+        <v>600</v>
+      </c>
+      <c r="U26" s="3">
         <v>1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="W26" s="3">
-        <v>200</v>
       </c>
       <c r="X26" s="3">
         <v>200</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>600</v>
       </c>
       <c r="S27" s="3">
         <v>600</v>
       </c>
       <c r="T27" s="3">
+        <v>600</v>
+      </c>
+      <c r="U27" s="3">
         <v>1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="W27" s="3">
-        <v>200</v>
       </c>
       <c r="X27" s="3">
         <v>200</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,14 +2335,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2293,23 +2354,23 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>41200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,19 +2540,22 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2500,11 +2570,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2512,22 +2582,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>-100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>14000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>11600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3165,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E43" s="3">
         <v>16200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>5000</v>
       </c>
       <c r="M43" s="3">
         <v>5000</v>
       </c>
       <c r="N43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O43" s="3">
         <v>5700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>12200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>11800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19200</v>
+        <v>21100</v>
       </c>
       <c r="E44" s="3">
         <v>19200</v>
       </c>
       <c r="F44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G44" s="3">
         <v>13500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>10400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>6900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>6600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>800</v>
       </c>
       <c r="S45" s="3">
         <v>800</v>
       </c>
       <c r="T45" s="3">
+        <v>800</v>
+      </c>
+      <c r="U45" s="3">
         <v>900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E46" s="3">
         <v>47100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>40600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>37600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>34300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>29200</v>
       </c>
       <c r="N46" s="3">
         <v>29200</v>
       </c>
       <c r="O46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="P46" s="3">
         <v>33700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>32100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>30500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>28600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>25200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>27900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,52 +3565,55 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2200</v>
       </c>
       <c r="H48" s="3">
         <v>2200</v>
       </c>
       <c r="I48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>800</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
       </c>
       <c r="Q48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>600</v>
@@ -3526,19 +3634,22 @@
         <v>600</v>
       </c>
       <c r="X48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y48" s="3">
         <v>700</v>
       </c>
       <c r="Z48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AA48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,76 +3657,79 @@
         <v>24600</v>
       </c>
       <c r="E49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="F49" s="3">
         <v>24800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3100</v>
-      </c>
-      <c r="P49" s="3">
-        <v>3200</v>
       </c>
       <c r="Q49" s="3">
         <v>3200</v>
       </c>
       <c r="R49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S49" s="3">
         <v>3300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,25 +3885,28 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3795,10 +3915,10 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3816,7 +3936,7 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3831,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>4100</v>
-      </c>
-      <c r="X52" s="3">
-        <v>100</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E54" s="3">
         <v>87200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>49700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>32500</v>
       </c>
       <c r="S54" s="3">
         <v>32500</v>
       </c>
       <c r="T54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="U54" s="3">
         <v>32900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>24900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1500</v>
       </c>
       <c r="K57" s="3">
         <v>1500</v>
       </c>
       <c r="L57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2400</v>
       </c>
       <c r="P57" s="3">
         <v>2400</v>
       </c>
       <c r="Q57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,12 +4279,12 @@
       <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4158,16 +4292,16 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
@@ -4184,8 +4318,8 @@
       <c r="R58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,174 +4345,183 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
         <v>17000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E61" s="3">
         <v>13700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4389,17 +4532,17 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4442,46 +4585,49 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>500</v>
       </c>
       <c r="F62" s="3">
         <v>500</v>
       </c>
       <c r="G62" s="3">
+        <v>500</v>
+      </c>
+      <c r="H62" s="3">
         <v>700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4490,16 +4636,16 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -4508,10 +4654,10 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y62" s="3">
         <v>400</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>500</v>
       </c>
       <c r="Z62" s="3">
         <v>500</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E66" s="3">
         <v>46000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E72" s="3">
         <v>16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>8900</v>
       </c>
       <c r="M72" s="3">
         <v>8900</v>
       </c>
       <c r="N72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O72" s="3">
         <v>9300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>1500</v>
       </c>
       <c r="Y72" s="3">
         <v>1500</v>
       </c>
       <c r="Z72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA72" s="3">
         <v>1600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E76" s="3">
         <v>41200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>40200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>37200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>32200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>25200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>21900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,10 +6022,10 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5841,7 +6040,7 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -5853,7 +6052,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5865,10 +6064,10 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>-100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5889,10 +6088,13 @@
         <v>200</v>
       </c>
       <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,28 +6602,29 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-2200</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -6415,19 +6636,19 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -6442,14 +6663,14 @@
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,28 +6840,31 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -6646,41 +6876,41 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-4000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>3800</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6752,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-200</v>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,73 +7270,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>-200</v>
       </c>
       <c r="Y100" s="3">
         <v>-200</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9800</v>
-      </c>
-      <c r="F102" s="3">
-        <v>500</v>
       </c>
       <c r="G102" s="3">
         <v>500</v>
       </c>
       <c r="H102" s="3">
+        <v>500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-2200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E8" s="3">
         <v>23000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>15500</v>
       </c>
       <c r="Q8" s="3">
         <v>15500</v>
       </c>
       <c r="R8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="S8" s="3">
         <v>13600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>20500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>8000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E9" s="3">
         <v>15900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>11400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>7500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>12800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>5600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-6700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-4800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,34 +1059,35 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>800</v>
       </c>
       <c r="F12" s="3">
+        <v>800</v>
+      </c>
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>400</v>
       </c>
       <c r="J12" s="3">
+        <v>400</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>400</v>
       </c>
       <c r="L12" s="3">
         <v>400</v>
@@ -1082,37 +1096,37 @@
         <v>400</v>
       </c>
       <c r="N12" s="3">
+        <v>400</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>400</v>
       </c>
       <c r="Q12" s="3">
         <v>400</v>
       </c>
       <c r="R12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>300</v>
       </c>
       <c r="T12" s="3">
+        <v>300</v>
+      </c>
+      <c r="U12" s="3">
         <v>200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,38 +1223,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2800</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1245,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1271,11 +1291,11 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1283,11 +1303,14 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E17" s="3">
         <v>22300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>16600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>7600</v>
       </c>
       <c r="Z17" s="3">
         <v>7600</v>
       </c>
       <c r="AA17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AB17" s="3">
         <v>7000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1300</v>
       </c>
       <c r="R18" s="3">
         <v>1300</v>
       </c>
       <c r="S18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="T18" s="3">
         <v>700</v>
       </c>
       <c r="U18" s="3">
+        <v>700</v>
+      </c>
+      <c r="V18" s="3">
         <v>2000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,22 +1616,23 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1613,11 +1647,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1625,22 +1659,22 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1663,88 +1697,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1500</v>
       </c>
       <c r="R21" s="3">
         <v>1500</v>
       </c>
       <c r="S21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="T21" s="3">
         <v>900</v>
       </c>
       <c r="U21" s="3">
+        <v>900</v>
+      </c>
+      <c r="V21" s="3">
         <v>2200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>4100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,129 +1863,135 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>800</v>
       </c>
       <c r="T23" s="3">
         <v>800</v>
       </c>
       <c r="U23" s="3">
+        <v>800</v>
+      </c>
+      <c r="V23" s="3">
         <v>2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
       </c>
       <c r="J24" s="3">
+        <v>300</v>
+      </c>
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-200</v>
       </c>
       <c r="L24" s="3">
         <v>-200</v>
       </c>
       <c r="M24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
@@ -1954,37 +2000,40 @@
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>41100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>-100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>600</v>
       </c>
       <c r="T26" s="3">
         <v>600</v>
       </c>
       <c r="U26" s="3">
+        <v>600</v>
+      </c>
+      <c r="V26" s="3">
         <v>1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="X26" s="3">
-        <v>200</v>
       </c>
       <c r="Y26" s="3">
         <v>200</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>600</v>
       </c>
       <c r="T27" s="3">
         <v>600</v>
       </c>
       <c r="U27" s="3">
+        <v>600</v>
+      </c>
+      <c r="V27" s="3">
         <v>1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="X27" s="3">
-        <v>200</v>
       </c>
       <c r="Y27" s="3">
         <v>200</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,14 +2399,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2357,23 +2418,23 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>41200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,22 +2610,25 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2573,11 +2643,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2585,22 +2655,22 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>-100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2623,88 +2693,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>14000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>16300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>11600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,328 +3258,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E43" s="3">
         <v>14800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>13500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5000</v>
       </c>
       <c r="N43" s="3">
         <v>5000</v>
       </c>
       <c r="O43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P43" s="3">
         <v>5700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>12200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>11800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E44" s="3">
         <v>21100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>19200</v>
       </c>
       <c r="F44" s="3">
         <v>19200</v>
       </c>
       <c r="G44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H44" s="3">
         <v>13500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>10400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>9600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>5500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>5800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>800</v>
       </c>
       <c r="T45" s="3">
         <v>800</v>
       </c>
       <c r="U45" s="3">
+        <v>800</v>
+      </c>
+      <c r="V45" s="3">
         <v>900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E46" s="3">
         <v>46200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>47100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>41600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>40600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>37600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>29200</v>
       </c>
       <c r="O46" s="3">
         <v>29200</v>
       </c>
       <c r="P46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>33700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>32100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>30500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>28600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>25200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>27900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,55 +3673,58 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E48" s="3">
         <v>16700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2200</v>
       </c>
       <c r="I48" s="3">
         <v>2200</v>
       </c>
       <c r="J48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
       </c>
       <c r="R48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>600</v>
@@ -3637,99 +3745,105 @@
         <v>600</v>
       </c>
       <c r="Y48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z48" s="3">
         <v>700</v>
       </c>
       <c r="AA48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AB48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24600</v>
+        <v>24100</v>
       </c>
       <c r="E49" s="3">
         <v>24600</v>
       </c>
       <c r="F49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="G49" s="3">
         <v>24800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3200</v>
       </c>
       <c r="R49" s="3">
         <v>3200</v>
       </c>
       <c r="S49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T49" s="3">
         <v>3300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,28 +4005,31 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3918,10 +4038,10 @@
         <v>100</v>
       </c>
       <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3939,7 +4059,7 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3954,10 +4074,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>4100</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E54" s="3">
         <v>89600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>87200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>49700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>32500</v>
       </c>
       <c r="T54" s="3">
         <v>32500</v>
       </c>
       <c r="U54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="V54" s="3">
         <v>32900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>24900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1500</v>
       </c>
       <c r="L57" s="3">
         <v>1500</v>
       </c>
       <c r="M57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2400</v>
       </c>
       <c r="Q57" s="3">
         <v>2400</v>
       </c>
       <c r="R57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,12 +4416,12 @@
       <c r="F58" s="3">
         <v>2400</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -4295,16 +4429,16 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1200</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>10</v>
@@ -4321,8 +4455,8 @@
       <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4348,183 +4482,192 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>17000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E61" s="3">
         <v>13100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>14300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4535,17 +4678,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4588,49 +4731,52 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E62" s="3">
         <v>15000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>500</v>
       </c>
       <c r="G62" s="3">
         <v>500</v>
       </c>
       <c r="H62" s="3">
+        <v>500</v>
+      </c>
+      <c r="I62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4639,16 +4785,16 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>200</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>100</v>
@@ -4657,10 +4803,10 @@
         <v>100</v>
       </c>
       <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z62" s="3">
         <v>400</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>500</v>
       </c>
       <c r="AA62" s="3">
         <v>500</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E66" s="3">
         <v>47700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E72" s="3">
         <v>16600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>8900</v>
       </c>
       <c r="N72" s="3">
         <v>8900</v>
       </c>
       <c r="O72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P72" s="3">
         <v>9300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>1500</v>
       </c>
       <c r="Z72" s="3">
         <v>1500</v>
       </c>
       <c r="AA72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB72" s="3">
         <v>1600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E76" s="3">
         <v>41900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>40200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>37200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>25200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6025,10 +6224,10 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -6043,7 +6242,7 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -6055,7 +6254,7 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -6067,10 +6266,10 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>-100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
@@ -6091,10 +6290,13 @@
         <v>200</v>
       </c>
       <c r="AB83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>900</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,31 +6823,32 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -6639,19 +6860,19 @@
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -6666,14 +6887,14 @@
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,31 +7070,34 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -6879,41 +7109,41 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-4000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>3800</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6989,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-200</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,76 +7516,79 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>-200</v>
       </c>
       <c r="Z100" s="3">
         <v>-200</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>500</v>
       </c>
       <c r="H102" s="3">
         <v>500</v>
       </c>
       <c r="I102" s="3">
+        <v>500</v>
+      </c>
+      <c r="J102" s="3">
         <v>-2200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E8" s="3">
         <v>18300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>15500</v>
       </c>
       <c r="R8" s="3">
         <v>15500</v>
       </c>
       <c r="S8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="T8" s="3">
         <v>13600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>20500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>8000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E9" s="3">
         <v>13300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>9500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>7500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>7800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>12800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-6700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-5300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,37 +1072,38 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>800</v>
       </c>
       <c r="G12" s="3">
+        <v>800</v>
+      </c>
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
       <c r="K12" s="3">
+        <v>400</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>400</v>
       </c>
       <c r="M12" s="3">
         <v>400</v>
@@ -1099,37 +1112,37 @@
         <v>400</v>
       </c>
       <c r="O12" s="3">
+        <v>400</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>400</v>
       </c>
       <c r="R12" s="3">
         <v>400</v>
       </c>
       <c r="S12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T12" s="3">
         <v>300</v>
       </c>
       <c r="U12" s="3">
+        <v>300</v>
+      </c>
+      <c r="V12" s="3">
         <v>200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>200</v>
       </c>
       <c r="Z12" s="3">
         <v>200</v>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,41 +1242,44 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2800</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1268,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1294,11 +1313,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
@@ -1306,11 +1325,14 @@
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E17" s="3">
         <v>19500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>16600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>7600</v>
       </c>
       <c r="AA17" s="3">
         <v>7600</v>
       </c>
       <c r="AB17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>7000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>1000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1300</v>
       </c>
       <c r="S18" s="3">
         <v>1300</v>
       </c>
       <c r="T18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="U18" s="3">
         <v>700</v>
       </c>
       <c r="V18" s="3">
+        <v>700</v>
+      </c>
+      <c r="W18" s="3">
         <v>2000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,16 +1659,16 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1650,11 +1683,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1662,22 +1695,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1700,91 +1733,97 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1500</v>
       </c>
       <c r="S21" s="3">
         <v>1500</v>
       </c>
       <c r="T21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="U21" s="3">
         <v>900</v>
       </c>
       <c r="V21" s="3">
+        <v>900</v>
+      </c>
+      <c r="W21" s="3">
         <v>2200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>4100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>800</v>
       </c>
       <c r="U23" s="3">
         <v>800</v>
       </c>
       <c r="V23" s="3">
+        <v>800</v>
+      </c>
+      <c r="W23" s="3">
         <v>2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>4000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,43 +2003,43 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
       </c>
       <c r="K24" s="3">
+        <v>300</v>
+      </c>
+      <c r="L24" s="3">
         <v>600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-200</v>
       </c>
       <c r="M24" s="3">
         <v>-200</v>
       </c>
       <c r="N24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
@@ -2003,37 +2048,40 @@
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>41100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
       <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>600</v>
       </c>
       <c r="U26" s="3">
         <v>600</v>
       </c>
       <c r="V26" s="3">
+        <v>600</v>
+      </c>
+      <c r="W26" s="3">
         <v>1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>200</v>
       </c>
       <c r="Z26" s="3">
         <v>200</v>
       </c>
       <c r="AA26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>600</v>
       </c>
       <c r="U27" s="3">
         <v>600</v>
       </c>
       <c r="V27" s="3">
+        <v>600</v>
+      </c>
+      <c r="W27" s="3">
         <v>1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>200</v>
       </c>
       <c r="Z27" s="3">
         <v>200</v>
       </c>
       <c r="AA27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2402,14 +2462,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2421,23 +2481,23 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>41200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,16 +2691,16 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2646,11 +2715,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2658,22 +2727,22 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2696,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>14100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>14000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>16300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>11600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E43" s="3">
         <v>13900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>13500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>5000</v>
       </c>
       <c r="O43" s="3">
         <v>5000</v>
       </c>
       <c r="P43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q43" s="3">
         <v>5700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>12200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>11800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E44" s="3">
         <v>20900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>21100</v>
-      </c>
-      <c r="F44" s="3">
-        <v>19200</v>
       </c>
       <c r="G44" s="3">
         <v>19200</v>
       </c>
       <c r="H44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I44" s="3">
         <v>13500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>11200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>10400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>8200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>7100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>6800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>5500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>6500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>700</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
       <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>800</v>
       </c>
       <c r="U45" s="3">
         <v>800</v>
       </c>
       <c r="V45" s="3">
+        <v>800</v>
+      </c>
+      <c r="W45" s="3">
         <v>900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E46" s="3">
         <v>41800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>41600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>40600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>37600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>30900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>31200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>29200</v>
       </c>
       <c r="P46" s="3">
         <v>29200</v>
       </c>
       <c r="Q46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="R46" s="3">
         <v>33700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>32100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>30500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>25200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>27900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,58 +3780,61 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E48" s="3">
         <v>16900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2200</v>
       </c>
       <c r="J48" s="3">
         <v>2200</v>
       </c>
       <c r="K48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L48" s="3">
         <v>1800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
       </c>
       <c r="S48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="T48" s="3">
         <v>600</v>
@@ -3748,102 +3855,108 @@
         <v>600</v>
       </c>
       <c r="Z48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA48" s="3">
         <v>700</v>
       </c>
       <c r="AB48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AC48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E49" s="3">
         <v>24100</v>
-      </c>
-      <c r="E49" s="3">
-        <v>24600</v>
       </c>
       <c r="F49" s="3">
         <v>24600</v>
       </c>
       <c r="G49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H49" s="3">
         <v>24800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3100</v>
-      </c>
-      <c r="R49" s="3">
-        <v>3200</v>
       </c>
       <c r="S49" s="3">
         <v>3200</v>
       </c>
       <c r="T49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U49" s="3">
         <v>3300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,31 +4124,34 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -4041,10 +4160,10 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
@@ -4062,7 +4181,7 @@
         <v>100</v>
       </c>
       <c r="T52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -4077,10 +4196,10 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>4100</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>84100</v>
+      </c>
+      <c r="E54" s="3">
         <v>85100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>89600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>87200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>49700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>32500</v>
       </c>
       <c r="U54" s="3">
         <v>32500</v>
       </c>
       <c r="V54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="W54" s="3">
         <v>32900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>26900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>24900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1500</v>
       </c>
       <c r="M57" s="3">
         <v>1500</v>
       </c>
       <c r="N57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2400</v>
       </c>
       <c r="R57" s="3">
         <v>2400</v>
       </c>
       <c r="S57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4419,12 +4552,12 @@
       <c r="G58" s="3">
         <v>2400</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4432,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>10</v>
@@ -4458,8 +4591,8 @@
       <c r="T58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4485,192 +4618,201 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>17000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E61" s="3">
         <v>12500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -4681,17 +4823,17 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4734,52 +4876,55 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E62" s="3">
         <v>14900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4788,16 +4933,16 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>200</v>
-      </c>
-      <c r="W62" s="3">
-        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>100</v>
@@ -4806,10 +4951,10 @@
         <v>100</v>
       </c>
       <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>500</v>
       </c>
       <c r="AB62" s="3">
         <v>500</v>
@@ -4817,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E66" s="3">
         <v>44100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>15500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>14400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>8900</v>
       </c>
       <c r="O72" s="3">
         <v>8900</v>
       </c>
       <c r="P72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>9300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1600</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>1500</v>
       </c>
       <c r="AA72" s="3">
         <v>1500</v>
       </c>
       <c r="AB72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC72" s="3">
         <v>1600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E76" s="3">
         <v>41000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>40200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>38600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>25200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>21900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,13 +6409,14 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -6227,10 +6425,10 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -6245,7 +6443,7 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -6257,7 +6455,7 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -6269,10 +6467,10 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>-100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -6293,10 +6491,13 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,34 +7043,35 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -6863,19 +7083,19 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -6890,14 +7110,14 @@
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,34 +7299,37 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -7112,41 +7341,41 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3800</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7226,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-200</v>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,79 +7761,82 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>16800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-200</v>
       </c>
       <c r="AA100" s="3">
         <v>-200</v>
@@ -7602,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>500</v>
       </c>
       <c r="I102" s="3">
         <v>500</v>
       </c>
       <c r="J102" s="3">
+        <v>500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RFIL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>RFIL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E8" s="3">
         <v>22300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>15500</v>
       </c>
       <c r="S8" s="3">
         <v>15500</v>
       </c>
       <c r="T8" s="3">
+        <v>15500</v>
+      </c>
+      <c r="U8" s="3">
         <v>13600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>20500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>8000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E9" s="3">
         <v>16200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>13300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>16600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>12800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>7800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>9500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>7500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>7800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>12800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>5700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="3">
         <v>6100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-5300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1800</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,40 +1086,41 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>800</v>
       </c>
       <c r="G12" s="3">
         <v>800</v>
       </c>
       <c r="H12" s="3">
+        <v>800</v>
+      </c>
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>400</v>
       </c>
       <c r="K12" s="3">
         <v>400</v>
       </c>
       <c r="L12" s="3">
+        <v>400</v>
+      </c>
+      <c r="M12" s="3">
         <v>200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>400</v>
       </c>
       <c r="N12" s="3">
         <v>400</v>
@@ -1115,37 +1129,37 @@
         <v>400</v>
       </c>
       <c r="P12" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
-      </c>
-      <c r="R12" s="3">
-        <v>400</v>
       </c>
       <c r="S12" s="3">
         <v>400</v>
       </c>
       <c r="T12" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U12" s="3">
         <v>300</v>
       </c>
       <c r="V12" s="3">
+        <v>300</v>
+      </c>
+      <c r="W12" s="3">
         <v>200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>200</v>
       </c>
       <c r="AA12" s="3">
         <v>200</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1256,33 +1276,33 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2800</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1290,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1316,11 +1336,11 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1328,11 +1348,14 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E17" s="3">
         <v>21800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>12300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>16600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>7600</v>
       </c>
       <c r="AB17" s="3">
         <v>7600</v>
       </c>
       <c r="AC17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AD17" s="3">
         <v>7000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>1000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1300</v>
       </c>
       <c r="T18" s="3">
         <v>1300</v>
       </c>
       <c r="U18" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="V18" s="3">
         <v>700</v>
       </c>
       <c r="W18" s="3">
+        <v>700</v>
+      </c>
+      <c r="X18" s="3">
         <v>2000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,28 +1683,29 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1686,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1698,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1736,94 +1770,100 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1500</v>
       </c>
       <c r="T21" s="3">
         <v>1500</v>
       </c>
       <c r="U21" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="V21" s="3">
         <v>900</v>
       </c>
       <c r="W21" s="3">
+        <v>900</v>
+      </c>
+      <c r="X21" s="3">
         <v>2200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,141 +1948,147 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>800</v>
       </c>
       <c r="V23" s="3">
         <v>800</v>
       </c>
       <c r="W23" s="3">
+        <v>800</v>
+      </c>
+      <c r="X23" s="3">
         <v>2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>4000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-3400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
         <v>-200</v>
       </c>
       <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
       </c>
       <c r="L24" s="3">
+        <v>300</v>
+      </c>
+      <c r="M24" s="3">
         <v>600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-200</v>
       </c>
       <c r="N24" s="3">
         <v>-200</v>
       </c>
       <c r="O24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
@@ -2051,37 +2097,40 @@
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>41100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
       <c r="AB24" s="3">
         <v>0</v>
       </c>
       <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1100</v>
-      </c>
-      <c r="U26" s="3">
-        <v>600</v>
       </c>
       <c r="V26" s="3">
         <v>600</v>
       </c>
       <c r="W26" s="3">
+        <v>600</v>
+      </c>
+      <c r="X26" s="3">
         <v>1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>3200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>200</v>
       </c>
       <c r="AA26" s="3">
         <v>200</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1100</v>
-      </c>
-      <c r="U27" s="3">
-        <v>600</v>
       </c>
       <c r="V27" s="3">
         <v>600</v>
       </c>
       <c r="W27" s="3">
+        <v>600</v>
+      </c>
+      <c r="X27" s="3">
         <v>1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>3200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-40700</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>200</v>
       </c>
       <c r="AA27" s="3">
         <v>200</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2465,14 +2526,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2484,23 +2545,23 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>100</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>41200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,28 +2749,31 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2718,11 +2788,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2730,22 +2800,22 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>3200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>3200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>14100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>16300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>11600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E43" s="3">
         <v>14500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>13500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>5000</v>
       </c>
       <c r="P43" s="3">
         <v>5000</v>
       </c>
       <c r="Q43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="R43" s="3">
         <v>5700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>12200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>9900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>11800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E44" s="3">
         <v>20400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>20900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>21100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>19200</v>
       </c>
       <c r="H44" s="3">
         <v>19200</v>
       </c>
       <c r="I44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="J44" s="3">
         <v>13500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>11200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>10400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>9600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>9200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>9100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>8100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>7100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>6900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>6800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>5500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>6500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>6700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>6600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>700</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
       </c>
       <c r="S45" s="3">
+        <v>700</v>
+      </c>
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
-      </c>
-      <c r="U45" s="3">
-        <v>800</v>
       </c>
       <c r="V45" s="3">
         <v>800</v>
       </c>
       <c r="W45" s="3">
+        <v>800</v>
+      </c>
+      <c r="X45" s="3">
         <v>900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E46" s="3">
         <v>41000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>41800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>47100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>41600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>41100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>40600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>37600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>34300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>31800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>30900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>29200</v>
       </c>
       <c r="Q46" s="3">
         <v>29200</v>
       </c>
       <c r="R46" s="3">
+        <v>29200</v>
+      </c>
+      <c r="S46" s="3">
         <v>33700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>32100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>30500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>28500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>25200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>27900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>16100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,61 +3888,64 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E48" s="3">
         <v>16600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>16700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>2200</v>
       </c>
       <c r="L48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M48" s="3">
         <v>1800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
       </c>
       <c r="T48" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="U48" s="3">
         <v>600</v>
@@ -3858,105 +3966,111 @@
         <v>600</v>
       </c>
       <c r="AA48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB48" s="3">
         <v>700</v>
       </c>
       <c r="AC48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AD48" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E49" s="3">
         <v>23700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>24600</v>
       </c>
       <c r="G49" s="3">
         <v>24600</v>
       </c>
       <c r="H49" s="3">
+        <v>24600</v>
+      </c>
+      <c r="I49" s="3">
         <v>24800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3100</v>
-      </c>
-      <c r="S49" s="3">
-        <v>3200</v>
       </c>
       <c r="T49" s="3">
         <v>3200</v>
       </c>
       <c r="U49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V49" s="3">
         <v>3300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>3600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,34 +4244,37 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -4163,10 +4283,10 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3">
         <v>900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -4184,7 +4304,7 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4199,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>4100</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E54" s="3">
         <v>84100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>85100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>89600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>87200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>49700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>49600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>42800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>40600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>40800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>40900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>32500</v>
       </c>
       <c r="V54" s="3">
         <v>32500</v>
       </c>
       <c r="W54" s="3">
+        <v>32500</v>
+      </c>
+      <c r="X54" s="3">
         <v>32900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>26900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>24900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>25000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,99 +4579,103 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>6100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1500</v>
       </c>
       <c r="N57" s="3">
         <v>1500</v>
       </c>
       <c r="O57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2400</v>
       </c>
       <c r="S57" s="3">
         <v>2400</v>
       </c>
       <c r="T57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="E58" s="3">
         <v>2400</v>
@@ -4555,12 +4689,12 @@
       <c r="H58" s="3">
         <v>2400</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4568,16 +4702,16 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>10</v>
@@ -4594,8 +4728,8 @@
       <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4621,201 +4755,210 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>7400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E60" s="3">
         <v>15900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E61" s="3">
         <v>11900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>12500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>14300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4826,17 +4969,17 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4879,55 +5022,58 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E62" s="3">
         <v>14500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>500</v>
       </c>
       <c r="I62" s="3">
         <v>500</v>
       </c>
       <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -4936,16 +5082,16 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>200</v>
-      </c>
-      <c r="X62" s="3">
-        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>100</v>
@@ -4954,10 +5100,10 @@
         <v>100</v>
       </c>
       <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB62" s="3">
         <v>400</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>500</v>
       </c>
       <c r="AC62" s="3">
         <v>500</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E66" s="3">
         <v>42300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>46000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>29500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E72" s="3">
         <v>16100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>14900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>8900</v>
       </c>
       <c r="P72" s="3">
         <v>8900</v>
       </c>
       <c r="Q72" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R72" s="3">
         <v>9300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1600</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>1500</v>
       </c>
       <c r="AB72" s="3">
         <v>1500</v>
       </c>
       <c r="AC72" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD72" s="3">
         <v>1600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E76" s="3">
         <v>41800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>40200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>25200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>21900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>21300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>21100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>21000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>21100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>21400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>3200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,7 +6618,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -6428,10 +6627,10 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -6446,7 +6645,7 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -6458,7 +6657,7 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -6470,10 +6669,10 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>-100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -6494,10 +6693,13 @@
         <v>200</v>
       </c>
       <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE83" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,37 +7264,38 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -7086,19 +7307,19 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -7113,14 +7334,14 @@
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,37 +7529,40 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -7344,41 +7574,41 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-4000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3800</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7462,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-200</v>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,82 +8007,85 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>16800</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>-200</v>
       </c>
       <c r="AB100" s="3">
         <v>-200</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>500</v>
       </c>
       <c r="J102" s="3">
         <v>500</v>
       </c>
       <c r="K102" s="3">
+        <v>500</v>
+      </c>
+      <c r="L102" s="3">
         <v>-2200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>600</v>
       </c>
     </row>
